--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3617491.676452524</v>
+        <v>3615604.09493612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>123.7964673646743</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>286.5751597134231</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>33.84234274505305</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>181.804330416593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955259</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,13 +1582,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139873</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.15043040726756</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.562624396424535</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.2835578420351</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>29.18937547121029</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.16481274941252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>58.84841879028961</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>57.5645290049876</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.3612566644546</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>113.9765264254024</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896552</v>
       </c>
       <c r="E31" t="n">
-        <v>1.042680388412714</v>
+        <v>91.23070601801201</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>42.20569823125715</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.2403795762991</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2517.073464816721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2298.438797788784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2044.677012426876</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1713.614125083305</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1360.845469813191</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>987.3797115521108</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>597.2403795762991</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1216.807289433107</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.807289433107</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>1216.807289433107</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>831.0190368348624</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>824.0735360856589</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>693.9447996154718</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371763</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304258</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733124</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1426.037047924299</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1226.117037839851</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1226.117037839851</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>936.9883990534094</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>936.9883990534094</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W16" t="n">
-        <v>647.5712290164488</v>
+        <v>330.825454879944</v>
       </c>
       <c r="X16" t="n">
-        <v>647.5712290164488</v>
+        <v>102.8359039819267</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059903</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059903</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936546</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936546</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936546</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936546</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,16 +5674,16 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
         <v>1283.483062980063</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488378</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>644.108030042951</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059904</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059904</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059904</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646857</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>126.701309107973</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247859</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383441</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324572</v>
+        <v>644.108030042951</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324572</v>
+        <v>354.6908600059903</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3330639344399</v>
+        <v>126.701309107973</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>126.701309107973</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1328.398319856809</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1104.612904646315</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,10 +6209,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655735</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W28" t="n">
-        <v>800.1927832984481</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="X28" t="n">
-        <v>800.1927832984481</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="Y28" t="n">
-        <v>579.400204154918</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.420029503086</v>
+        <v>439.5324299542202</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565499</v>
+        <v>326.3571123076842</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2447118565499</v>
+        <v>232.0013381767193</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>139.8491098756971</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>139.8491098756971</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818921</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652454</v>
+        <v>730.4517433652483</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503086</v>
+        <v>565.420029503089</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,52 +6856,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018223</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,25 +7078,25 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.848946864969</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,34 +7309,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,19 +7345,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7391,28 +7391,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>18.73797368291383</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>73.64859338270685</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>113.602692129454</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208062</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775594</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.81392199652524</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.0220289556703</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>42.63027052550108</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.0574456274176</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.4198406026823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.0723911933136</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>194.5731143188404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.1617416721364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>104.6081269266924</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.18802562959948</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437409</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897897</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712984.4473832542</v>
+        <v>712984.4473832543</v>
       </c>
     </row>
     <row r="12">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278761</v>
       </c>
       <c r="J2" t="n">
         <v>703852.3075278759</v>
@@ -26341,16 +26341,16 @@
         <v>732279.8472214855</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778565</v>
+        <v>738937.5928778563</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778561</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.592877856</v>
       </c>
       <c r="P2" t="n">
         <v>738937.5928778565</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106722</v>
+        <v>40339.23010106728</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662347</v>
+        <v>-99522.2321866237</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539238</v>
+        <v>64432.87838942003</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922886</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922885</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922888</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922888</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996955</v>
+        <v>413169.6956737234</v>
       </c>
       <c r="K6" t="n">
-        <v>551149.8032873499</v>
+        <v>551131.3095494153</v>
       </c>
       <c r="L6" t="n">
         <v>586286.1854287729</v>
       </c>
       <c r="M6" t="n">
-        <v>461828.0769958025</v>
+        <v>461828.0769958023</v>
       </c>
       <c r="N6" t="n">
-        <v>596629.0922296396</v>
+        <v>596629.0922296392</v>
       </c>
       <c r="O6" t="n">
-        <v>596629.0922296398</v>
+        <v>596629.0922296394</v>
       </c>
       <c r="P6" t="n">
         <v>552466.4869267942</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108369</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.61924544429722</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>127.2090103073719</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>218.295300578775</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>200.1260396556688</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094189</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.2331161620402</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.181774678116199e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244931</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>224.2240319706461</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541966</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,10 +36057,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768305</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37403,10 +37403,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>343.3468637082223</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
